--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2147455.572688625</v>
+        <v>2143151.232878756</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>110.096520216718</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
-        <v>116.9725659584295</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015063</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -743,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>58.2609109808952</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>35.74312730177323</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,13 +834,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10.53330870651029</v>
+        <v>64.43975955209551</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015062</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>227.9187527607135</v>
+        <v>21.31870353900228</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,22 +977,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>122.1892899038784</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>138.3054302531687</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>75.42192225306118</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>147.2140319987225</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>10.12614369697667</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203003</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465</v>
+        <v>65.76608425465039</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348404</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>199.9114655606043</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>133.5587268592552</v>
+        <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614502</v>
+        <v>92.83909691614507</v>
       </c>
       <c r="I9" t="n">
-        <v>20.2497997611522</v>
+        <v>20.24979976115239</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901737</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0697045406876</v>
+        <v>190.2932553761562</v>
       </c>
       <c r="U9" t="n">
         <v>225.8092543744329</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>117.0519363734785</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>87.57230869369469</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>135.3135037226517</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1578,13 +1578,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>106.8299898147634</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C16" t="n">
-        <v>23.6255456814127</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>55.40976022256941</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>18.70843787977262</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>140.3829797864967</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>1.839588425939337</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2727,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>55.52079624060555</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>73.44478684180609</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2961,13 +2961,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>194.7521146501823</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>135.5334195528353</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>131.4244133395513</v>
       </c>
       <c r="H37" t="n">
-        <v>13.53601007884754</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>14.76058440587529</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>81.54417886827382</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>98.03921036659332</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>168.97752971242</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>110.0177171766856</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1054.855520006025</v>
+        <v>943.6469137265115</v>
       </c>
       <c r="C2" t="n">
-        <v>1054.855520006025</v>
+        <v>943.6469137265115</v>
       </c>
       <c r="D2" t="n">
-        <v>1054.855520006025</v>
+        <v>677.2692571593335</v>
       </c>
       <c r="E2" t="n">
-        <v>936.7014129773083</v>
+        <v>410.8916005921556</v>
       </c>
       <c r="F2" t="n">
-        <v>670.3237564101303</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="G2" t="n">
-        <v>403.9460998429522</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030611</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991323</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.94651543132778</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="C3" t="n">
-        <v>79.94651543132778</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D3" t="n">
-        <v>79.94651543132778</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>79.94651543132778</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>79.94651543132778</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>79.94651543132778</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957459</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298712</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>433.126243926395</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110289999</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>904.2569522304909</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1021.314552263894</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4436,25 +4436,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166548</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T3" t="n">
-        <v>691.0742594480924</v>
+        <v>851.7791688249642</v>
       </c>
       <c r="U3" t="n">
-        <v>691.0742594480924</v>
+        <v>851.7791688249642</v>
       </c>
       <c r="V3" t="n">
-        <v>455.9221512163497</v>
+        <v>851.7791688249642</v>
       </c>
       <c r="W3" t="n">
-        <v>455.9221512163497</v>
+        <v>851.7791688249642</v>
       </c>
       <c r="X3" t="n">
-        <v>455.9221512163497</v>
+        <v>851.7791688249642</v>
       </c>
       <c r="Y3" t="n">
-        <v>248.1618524513958</v>
+        <v>644.0188700600104</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>818.7467779998875</v>
+        <v>761.7753028937693</v>
       </c>
       <c r="C4" t="n">
-        <v>649.8105950719806</v>
+        <v>761.7753028937693</v>
       </c>
       <c r="D4" t="n">
-        <v>499.6939556596449</v>
+        <v>761.7753028937693</v>
       </c>
       <c r="E4" t="n">
-        <v>351.7808620772518</v>
+        <v>613.8622093113762</v>
       </c>
       <c r="F4" t="n">
-        <v>204.8909145793414</v>
+        <v>466.9722618134659</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>298.4029011684693</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075546</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1044.215814241873</v>
+        <v>989.7648537917867</v>
       </c>
       <c r="S4" t="n">
-        <v>1044.215814241873</v>
+        <v>989.7648537917867</v>
       </c>
       <c r="T4" t="n">
-        <v>818.7467779998875</v>
+        <v>989.7648537917867</v>
       </c>
       <c r="U4" t="n">
-        <v>818.7467779998875</v>
+        <v>989.7648537917867</v>
       </c>
       <c r="V4" t="n">
-        <v>818.7467779998875</v>
+        <v>989.7648537917867</v>
       </c>
       <c r="W4" t="n">
-        <v>818.7467779998875</v>
+        <v>989.7648537917867</v>
       </c>
       <c r="X4" t="n">
-        <v>818.7467779998875</v>
+        <v>761.7753028937693</v>
       </c>
       <c r="Y4" t="n">
-        <v>818.7467779998875</v>
+        <v>761.7753028937693</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>634.1670622275112</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="C5" t="n">
-        <v>634.1670622275112</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="D5" t="n">
-        <v>634.1670622275112</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="E5" t="n">
-        <v>634.1670622275112</v>
+        <v>166.0479880037678</v>
       </c>
       <c r="F5" t="n">
-        <v>367.7894056603332</v>
+        <v>159.1024872545643</v>
       </c>
       <c r="G5" t="n">
         <v>137.5684432757741</v>
@@ -4564,25 +4564,25 @@
         <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946892</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946892</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946892</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="V5" t="n">
-        <v>900.5447187946892</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="W5" t="n">
-        <v>900.5447187946892</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="X5" t="n">
-        <v>634.1670622275112</v>
+        <v>432.4256445709457</v>
       </c>
       <c r="Y5" t="n">
-        <v>634.1670622275112</v>
+        <v>432.4256445709457</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>579.9655459954062</v>
+        <v>452.69250022226</v>
       </c>
       <c r="C6" t="n">
-        <v>405.5125167142792</v>
+        <v>452.69250022226</v>
       </c>
       <c r="D6" t="n">
-        <v>405.5125167142792</v>
+        <v>303.7580905610087</v>
       </c>
       <c r="E6" t="n">
-        <v>405.5125167142792</v>
+        <v>144.5206355555532</v>
       </c>
       <c r="F6" t="n">
-        <v>258.9779587411641</v>
+        <v>144.5206355555532</v>
       </c>
       <c r="G6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699344</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302311</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>529.474696326755</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560898</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4673,25 +4673,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166546</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>887.8833378166546</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>887.8833378166546</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>887.8833378166546</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>887.8833378166546</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>748.1808830154741</v>
+        <v>828.6681360072819</v>
       </c>
       <c r="Y6" t="n">
-        <v>748.1808830154741</v>
+        <v>620.907837242328</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>705.2704126971776</v>
+        <v>469.821524546946</v>
       </c>
       <c r="C7" t="n">
-        <v>705.2704126971776</v>
+        <v>469.821524546946</v>
       </c>
       <c r="D7" t="n">
-        <v>629.0866528456006</v>
+        <v>469.821524546946</v>
       </c>
       <c r="E7" t="n">
-        <v>629.0866528456006</v>
+        <v>321.9084309645528</v>
       </c>
       <c r="F7" t="n">
-        <v>482.1967053476902</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G7" t="n">
-        <v>313.6273447026937</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>926.0629918407077</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="W7" t="n">
-        <v>926.0629918407077</v>
+        <v>651.4699893771857</v>
       </c>
       <c r="X7" t="n">
-        <v>926.0629918407077</v>
+        <v>651.4699893771857</v>
       </c>
       <c r="Y7" t="n">
-        <v>705.2704126971776</v>
+        <v>651.4699893771857</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1248.407986524948</v>
+        <v>954.5621981175507</v>
       </c>
       <c r="C8" t="n">
-        <v>1248.407986524948</v>
+        <v>954.5621981175507</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.407986524948</v>
+        <v>954.5621981175507</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.407986524948</v>
+        <v>944.3337701408066</v>
       </c>
       <c r="F8" t="n">
-        <v>837.4220817353406</v>
+        <v>533.3478653511989</v>
       </c>
       <c r="G8" t="n">
-        <v>421.7158597270078</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="H8" t="n">
-        <v>117.641643342866</v>
+        <v>117.6416433428661</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2112552068559</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="J8" t="n">
-        <v>187.370225146718</v>
+        <v>187.3702251467169</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607439</v>
+        <v>442.1757437607419</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045963</v>
+        <v>795.1862829045917</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995232</v>
+        <v>1219.647962995225</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209591</v>
+        <v>1655.591685209583</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940604</v>
+        <v>2053.905718940594</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550207</v>
+        <v>2359.356530550197</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661175</v>
+        <v>2540.564622661163</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342795</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762148</v>
+        <v>2435.830015762135</v>
       </c>
       <c r="T8" t="n">
-        <v>2227.077931858421</v>
+        <v>2435.830015762135</v>
       </c>
       <c r="U8" t="n">
-        <v>2227.077931858421</v>
+        <v>2435.830015762135</v>
       </c>
       <c r="V8" t="n">
-        <v>2227.077931858421</v>
+        <v>2104.767128418564</v>
       </c>
       <c r="W8" t="n">
-        <v>2227.077931858421</v>
+        <v>2104.767128418564</v>
       </c>
       <c r="X8" t="n">
-        <v>2025.147158564882</v>
+        <v>1731.301370157484</v>
       </c>
       <c r="Y8" t="n">
-        <v>1635.00782658907</v>
+        <v>1341.162038181672</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.50972080109</v>
+        <v>931.3041138965631</v>
       </c>
       <c r="C9" t="n">
-        <v>755.056691519963</v>
+        <v>756.8510846154361</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587117</v>
+        <v>607.9166749541848</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532562</v>
+        <v>448.6792199487294</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801412</v>
+        <v>302.1446619756144</v>
       </c>
       <c r="G9" t="n">
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993894</v>
+        <v>71.66559839993886</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2112552068559</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507242</v>
+        <v>238.3188829507235</v>
       </c>
       <c r="K9" t="n">
-        <v>684.7364639442769</v>
+        <v>589.4696922330237</v>
       </c>
       <c r="L9" t="n">
-        <v>979.2724473777594</v>
+        <v>884.0056756665049</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.338915852062</v>
+        <v>1247.072144140806</v>
       </c>
       <c r="N9" t="n">
-        <v>1729.423318324632</v>
+        <v>1634.156546613375</v>
       </c>
       <c r="O9" t="n">
-        <v>2061.310128312023</v>
+        <v>1966.043356600764</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888892</v>
+        <v>2213.078715030389</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442638</v>
+        <v>2536.272628442624</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342795</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251711</v>
+        <v>2424.826280251697</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.81647768536</v>
+        <v>2232.610870780833</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751589</v>
+        <v>2004.520714847062</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519846</v>
+        <v>1769.368606615319</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791645</v>
+        <v>1515.131249887118</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586112</v>
+        <v>1307.279749681585</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821158</v>
+        <v>1099.519450916631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>326.0224378752672</v>
+        <v>868.9849822405228</v>
       </c>
       <c r="C10" t="n">
-        <v>157.0862549473603</v>
+        <v>868.9849822405228</v>
       </c>
       <c r="D10" t="n">
-        <v>157.0862549473603</v>
+        <v>718.868342828187</v>
       </c>
       <c r="E10" t="n">
-        <v>157.0862549473603</v>
+        <v>570.9552492457939</v>
       </c>
       <c r="F10" t="n">
-        <v>157.0862549473603</v>
+        <v>424.0653017478835</v>
       </c>
       <c r="G10" t="n">
-        <v>157.0862549473603</v>
+        <v>305.8310225827537</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473603</v>
+        <v>157.0862549473602</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2112552068559</v>
+        <v>51.21125520685564</v>
       </c>
       <c r="J10" t="n">
-        <v>76.634683083802</v>
+        <v>76.63468308380143</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676577</v>
+        <v>248.2500215676567</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368935</v>
+        <v>523.3850043368918</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904057</v>
+        <v>823.8653899904033</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101615</v>
+        <v>1122.635640101612</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931094</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616504</v>
+        <v>1581.490387616499</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477367</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412624</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="S10" t="n">
-        <v>1336.515802634458</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="T10" t="n">
-        <v>1113.534501108863</v>
+        <v>1412.787843951768</v>
       </c>
       <c r="U10" t="n">
-        <v>1113.534501108863</v>
+        <v>1123.66947044641</v>
       </c>
       <c r="V10" t="n">
-        <v>1025.077623640485</v>
+        <v>868.9849822405228</v>
       </c>
       <c r="W10" t="n">
-        <v>735.6604536035243</v>
+        <v>868.9849822405228</v>
       </c>
       <c r="X10" t="n">
-        <v>507.6709027055069</v>
+        <v>868.9849822405228</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.6709027055069</v>
+        <v>868.9849822405228</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5129,19 +5129,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.2946447138411</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>916.2946447138411</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
         <v>779.6143379232838</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
@@ -5266,31 +5266,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5311,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.445529061503</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5509,10 +5509,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5524,19 +5524,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2319.799627685893</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,7 +5764,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5779,10 +5779,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6080,7 +6080,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3007.624207651098</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>2838.688024723192</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>2688.571385310856</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>2540.658291728463</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>2393.768344230552</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4471.231687421535</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>4182.156460765733</v>
+        <v>1970.320130882545</v>
       </c>
       <c r="V28" t="n">
-        <v>3927.471972559846</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W28" t="n">
-        <v>3638.054802522885</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X28" t="n">
-        <v>3410.065251624868</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y28" t="n">
-        <v>3189.272672481338</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6454,31 +6454,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6545,22 +6545,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>738.7889117913853</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1366.386875345992</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101285</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>149.8982754122182</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,28 +6712,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>740.5562989961525</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1368.154262550759</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3228.416786794628</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>3091.514342801865</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>2941.39770338953</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>2793.484609807137</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>3927.471972559846</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3638.054802522885</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3410.065251624868</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>3410.065251624868</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6955,31 +6955,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7025,19 +7025,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>801.6918836311989</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C37" t="n">
-        <v>801.6918836311989</v>
+        <v>747.3737171343197</v>
       </c>
       <c r="D37" t="n">
-        <v>651.5752442188632</v>
+        <v>597.2570777219839</v>
       </c>
       <c r="E37" t="n">
-        <v>503.6621506364701</v>
+        <v>597.2570777219839</v>
       </c>
       <c r="F37" t="n">
-        <v>356.7722031385597</v>
+        <v>450.3671302240735</v>
       </c>
       <c r="G37" t="n">
-        <v>189.5761038534396</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y37" t="n">
-        <v>983.3403484614387</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,40 +7186,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>417.9651836029414</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L39" t="n">
-        <v>913.2907898187001</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>802.9288273958734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>652.8121879835377</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>504.8990944011446</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>358.0091469032342</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>190.8130476181141</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,28 +7423,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3274.788447112224</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C43" t="n">
-        <v>3105.852264184317</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>2165.078743814364</v>
       </c>
       <c r="U43" t="n">
-        <v>4221.331149328841</v>
+        <v>1876.003517158562</v>
       </c>
       <c r="V43" t="n">
-        <v>3966.646661122954</v>
+        <v>1621.319028952675</v>
       </c>
       <c r="W43" t="n">
-        <v>3677.229491085994</v>
+        <v>1331.901858915714</v>
       </c>
       <c r="X43" t="n">
-        <v>3677.229491085994</v>
+        <v>1103.912308017697</v>
       </c>
       <c r="Y43" t="n">
-        <v>3456.436911942464</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
     <row r="44">
@@ -7627,13 +7627,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7642,55 +7642,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>913.2907898187001</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400712</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.05878169167812</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127268</v>
+        <v>5.262887399594746</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127241</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>168.2361746779808</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>113.8482254012565</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>13.30196929556061</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>111.7546635373314</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C16" t="n">
-        <v>143.6212754172151</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>111.8370608760584</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>110.0033420516633</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>212.7396875474381</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>84.77391660562006</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>30.95754073885482</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>31.71340154579249</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>34.09972495271759</v>
       </c>
       <c r="H37" t="n">
-        <v>126.7587027673763</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>125.5341284403486</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>67.07129414993854</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>119.3662399606949</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>10.85445046951727</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>36.41624546988362</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>857214.6010408119</v>
+        <v>857214.6010408117</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274167</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>835254.5362274165</v>
+        <v>835254.5362274166</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>835254.5362274165</v>
+        <v>835254.5362274166</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>835254.5362274167</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274167</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="F2" t="n">
         <v>585181.2847752547</v>
       </c>
-      <c r="F2" t="n">
-        <v>585181.2847752543</v>
-      </c>
       <c r="G2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="J2" t="n">
         <v>585181.2847752542</v>
       </c>
-      <c r="J2" t="n">
-        <v>585181.2847752547</v>
-      </c>
       <c r="K2" t="n">
+        <v>585181.2847752541</v>
+      </c>
+      <c r="L2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="M2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="N2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="L2" t="n">
-        <v>585181.2847752541</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752545</v>
-      </c>
       <c r="O2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911928</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580818</v>
+        <v>390680.0076580788</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606905</v>
+        <v>507909.2320606935</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101839</v>
+        <v>95270.23779101764</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954683</v>
+        <v>132717.9756954691</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>247648.5670423891</v>
       </c>
       <c r="D4" t="n">
-        <v>135650.8557716737</v>
+        <v>135650.8557716746</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
@@ -26438,28 +26438,28 @@
         <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
+        <v>8727.256391744246</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8727.256391744246</v>
+      </c>
+      <c r="K4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="J4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744284</v>
-      </c>
       <c r="L4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744242</v>
       </c>
       <c r="M4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744242</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567921</v>
+        <v>92902.86757567895</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-395529.0676862434</v>
+        <v>-395529.067686243</v>
       </c>
       <c r="C6" t="n">
         <v>284558.9129049496</v>
       </c>
       <c r="D6" t="n">
-        <v>-23978.44785382901</v>
+        <v>-23978.44785382718</v>
       </c>
       <c r="E6" t="n">
-        <v>-32577.73350108719</v>
+        <v>-32925.1127554475</v>
       </c>
       <c r="F6" t="n">
-        <v>475331.4985596029</v>
+        <v>474984.1193052463</v>
       </c>
       <c r="G6" t="n">
-        <v>475331.4985596033</v>
+        <v>474984.1193052462</v>
       </c>
       <c r="H6" t="n">
-        <v>475331.4985596031</v>
+        <v>474984.1193052461</v>
       </c>
       <c r="I6" t="n">
-        <v>475331.4985596028</v>
+        <v>474984.1193052461</v>
       </c>
       <c r="J6" t="n">
-        <v>406332.3441404891</v>
+        <v>405984.9648861318</v>
       </c>
       <c r="K6" t="n">
-        <v>475331.4985596031</v>
+        <v>474984.1193052458</v>
       </c>
       <c r="L6" t="n">
-        <v>380061.2607685843</v>
+        <v>379713.8815142284</v>
       </c>
       <c r="M6" t="n">
-        <v>342613.5228641349</v>
+        <v>342266.1436097768</v>
       </c>
       <c r="N6" t="n">
-        <v>475331.4985596032</v>
+        <v>474984.1193052461</v>
       </c>
       <c r="O6" t="n">
-        <v>475331.4985596031</v>
+        <v>474984.119305246</v>
       </c>
       <c r="P6" t="n">
-        <v>475331.4985596031</v>
+        <v>474984.1193052459</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627852</v>
+        <v>933.7024595627827</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856988</v>
+        <v>640.1406900856955</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26819,19 +26819,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933068</v>
+        <v>319.6474457933044</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788886</v>
+        <v>434.2730407788911</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841926</v>
+        <v>376.4268100841894</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139496</v>
+        <v>532.5675980139529</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841926</v>
+        <v>376.4268100841896</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139496</v>
+        <v>532.5675980139529</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841926</v>
+        <v>376.4268100841894</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139496</v>
+        <v>532.5675980139529</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>272.6373214467626</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
-        <v>264.9578041138323</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442038</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776173</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27463,22 +27463,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>41.21840929031454</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,13 +27511,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>159.0978602831036</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.9712941771536</v>
+        <v>63.06484333156844</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,10 +27627,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>184.9154218849965</v>
+        <v>391.5154711067077</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,25 +27697,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>13.83342968254507</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
@@ -27760,10 +27760,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>67.46755495030882</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>73.19355076515117</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27833,16 +27833,16 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>139.3089663378685</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>371.8042263752851</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>169.8196351178647</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27946,7 +27946,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.776449164518482</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27985,7 +27985,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.776449164531471</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>49.25531723822769</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>164.5653346301333</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30708,7 +30708,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,22 +31199,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885566</v>
+        <v>3.753577726885556</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546681</v>
+        <v>38.44132789546671</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157559</v>
+        <v>144.7098053157555</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972541</v>
+        <v>318.5802175972532</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763202</v>
+        <v>477.4691627763189</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354945</v>
+        <v>592.3427171354929</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359956</v>
+        <v>659.0954050359938</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525092</v>
+        <v>669.7602577525074</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307908</v>
+        <v>632.4356192307891</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983033</v>
+        <v>539.769169098302</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542139</v>
+        <v>405.3441667542128</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864756</v>
+        <v>235.785676886475</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140491</v>
+        <v>85.53465245140468</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944157</v>
+        <v>16.43128649944153</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508452</v>
+        <v>0.3002862181508444</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436934</v>
+        <v>2.008341139436929</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035145</v>
+        <v>19.3963473203514</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026287</v>
+        <v>69.14683309026269</v>
       </c>
       <c r="J9" t="n">
-        <v>189.744195107943</v>
+        <v>189.7441951079425</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502176</v>
+        <v>324.3030514502167</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571291</v>
+        <v>436.0654741571279</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617178</v>
+        <v>508.8678404617165</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152226</v>
+        <v>522.3360580152213</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519095</v>
+        <v>477.8354464519082</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947599</v>
+        <v>383.5050724947588</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463708</v>
+        <v>256.3629847463701</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204792</v>
+        <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366409</v>
+        <v>37.30405581366398</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133956</v>
+        <v>8.095024154133935</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419036</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752563</v>
+        <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840007</v>
+        <v>14.96985254840003</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415891</v>
+        <v>50.63422518415878</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954062</v>
+        <v>119.0394102954059</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772523</v>
+        <v>195.6183185772518</v>
       </c>
       <c r="L10" t="n">
-        <v>250.324098749013</v>
+        <v>250.3240987490123</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023131</v>
+        <v>263.9316641023124</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462356</v>
+        <v>257.6559590462349</v>
       </c>
       <c r="O10" t="n">
-        <v>237.986981004626</v>
+        <v>237.9869810046254</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708736</v>
+        <v>203.638975770873</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939806</v>
+        <v>140.9890713939802</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307432</v>
+        <v>75.70643221307412</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658784</v>
+        <v>29.34274778658776</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942769</v>
+        <v>7.194100917942749</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650355</v>
+        <v>0.09183958618650331</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,7 +31849,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31861,10 +31861,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>213.1625787491746</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32077,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>522.1224556861836</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>163.1438255932938</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32554,28 +32554,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>539.5330155967683</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>500.7380235181012</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>314.105962234273</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>550.5977692975237</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>476.0648089385468</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763041</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877691</v>
+        <v>33.8797653960911</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34874,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705678</v>
+        <v>137.534313070567</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313396</v>
+        <v>257.3793117313384</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655072</v>
+        <v>356.5763021655056</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087228</v>
+        <v>428.7491718087211</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559183</v>
+        <v>440.3471941559165</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091041</v>
+        <v>402.3374078091024</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430338</v>
+        <v>308.5361733430324</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797644</v>
+        <v>183.0384768797634</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234349</v>
+        <v>20.20013907234286</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816851</v>
+        <v>188.9976037816847</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884372</v>
+        <v>354.6977871538386</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772549</v>
+        <v>297.5110943772538</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396995</v>
+        <v>366.7338065396982</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318894</v>
+        <v>390.994345931888</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074651</v>
+        <v>335.2392020074638</v>
       </c>
       <c r="P9" t="n">
-        <v>363.3788904816861</v>
+        <v>249.5306650804286</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603493</v>
+        <v>326.4584983961977</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783605</v>
+        <v>24.53548676783571</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873344</v>
+        <v>25.68023017873313</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513694</v>
+        <v>173.3488267513689</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093291</v>
+        <v>277.9141240093284</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641537</v>
+        <v>303.515541064153</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254643</v>
+        <v>301.7881314254635</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186657</v>
+        <v>262.5721089186651</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357671</v>
+        <v>200.9175350357665</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228618</v>
+        <v>54.82702814228578</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35497,7 +35497,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35509,10 +35509,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>379.5262112417391</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>20.54758114884936</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>405.558608182438</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>366.763616103771</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193515</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>176.264523259914</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>416.6233618831934</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902408</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>337.5104291586726</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_13_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2143151.232878756</v>
+        <v>2144911.763181541</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>110.096520216718</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15.62903715749003</v>
+      </c>
+      <c r="F2" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="E2" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>263.7138800015061</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -740,19 +740,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>107.1258713709636</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.1525249552777</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>35.74312730177323</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,13 +834,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>64.43975955209551</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>2.57784215067144</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>7.155295256393378</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G5" t="n">
-        <v>21.31870353900228</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -977,19 +977,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>107.1258713709638</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>122.1892899038784</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>146.7903782707762</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>147.2140319987225</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>10.12614369697667</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>11.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465039</v>
+        <v>65.76608425465054</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>18.34929745587717</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614507</v>
+        <v>92.83909691614508</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115239</v>
+        <v>20.24979976115246</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>134.3791152901739</v>
       </c>
       <c r="T9" t="n">
-        <v>190.2932553761562</v>
+        <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092543744329</v>
+        <v>224.0328052098966</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>117.0519363734785</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>97.33547091400226</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444124</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695418</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>106.8299898147634</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673014</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187855</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>55.40976022256941</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>72.97607332171654</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784685</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>123.9815576456779</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>73.44478684180609</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>194.7521146501823</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>131.4244133395513</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>98.03921036659332</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>168.97752971242</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>943.6469137265115</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="C2" t="n">
-        <v>943.6469137265115</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="D2" t="n">
-        <v>677.2692571593335</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="E2" t="n">
-        <v>410.8916005921556</v>
+        <v>670.32375641013</v>
       </c>
       <c r="F2" t="n">
         <v>403.9460998429521</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757742</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757742</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030611</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>475.8035330399423</v>
+        <v>452.69250022226</v>
       </c>
       <c r="C3" t="n">
-        <v>475.8035330399423</v>
+        <v>278.2394709411329</v>
       </c>
       <c r="D3" t="n">
-        <v>326.869123378691</v>
+        <v>129.3050612798817</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>129.3050612798817</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>129.3050612798817</v>
       </c>
       <c r="G3" t="n">
         <v>21.09711040012049</v>
@@ -4409,25 +4409,25 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004799</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957459</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298712</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M3" t="n">
-        <v>433.126243926395</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110289999</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>904.2569522304909</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>1021.314552263894</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4436,25 +4436,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166544</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>851.7791688249642</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>851.7791688249642</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>851.7791688249642</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>851.7791688249642</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X3" t="n">
-        <v>851.7791688249642</v>
+        <v>828.6681360072819</v>
       </c>
       <c r="Y3" t="n">
-        <v>644.0188700600104</v>
+        <v>620.907837242328</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>761.7753028937693</v>
+        <v>649.8105950719806</v>
       </c>
       <c r="C4" t="n">
-        <v>761.7753028937693</v>
+        <v>649.8105950719806</v>
       </c>
       <c r="D4" t="n">
-        <v>761.7753028937693</v>
+        <v>499.6939556596449</v>
       </c>
       <c r="E4" t="n">
-        <v>613.8622093113762</v>
+        <v>351.7808620772518</v>
       </c>
       <c r="F4" t="n">
-        <v>466.9722618134659</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="G4" t="n">
-        <v>298.4029011684693</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
@@ -4494,16 +4494,16 @@
         <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>989.7648537917867</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>989.7648537917867</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>989.7648537917867</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>989.7648537917867</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>989.7648537917867</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>989.7648537917867</v>
+        <v>1052.25163904575</v>
       </c>
       <c r="X4" t="n">
-        <v>761.7753028937693</v>
+        <v>1052.25163904575</v>
       </c>
       <c r="Y4" t="n">
-        <v>761.7753028937693</v>
+        <v>831.4590599022204</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>432.4256445709457</v>
+        <v>574.0438072739748</v>
       </c>
       <c r="C5" t="n">
-        <v>166.0479880037678</v>
+        <v>574.0438072739748</v>
       </c>
       <c r="D5" t="n">
-        <v>166.0479880037678</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="E5" t="n">
-        <v>166.0479880037678</v>
+        <v>300.438579740743</v>
       </c>
       <c r="F5" t="n">
-        <v>159.1024872545643</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030603</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>686.1106626298169</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="U5" t="n">
-        <v>432.4256445709457</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="V5" t="n">
-        <v>432.4256445709457</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="W5" t="n">
-        <v>432.4256445709457</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="X5" t="n">
-        <v>432.4256445709457</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="Y5" t="n">
-        <v>432.4256445709457</v>
+        <v>840.4214638411528</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>452.69250022226</v>
+        <v>452.6925002222602</v>
       </c>
       <c r="C6" t="n">
-        <v>452.69250022226</v>
+        <v>278.2394709411332</v>
       </c>
       <c r="D6" t="n">
-        <v>303.7580905610087</v>
+        <v>129.3050612798819</v>
       </c>
       <c r="E6" t="n">
-        <v>144.5206355555532</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>144.5206355555532</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004801</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>694.2029851278863</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4688,10 +4688,10 @@
         <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>828.6681360072819</v>
+        <v>828.6681360072821</v>
       </c>
       <c r="Y6" t="n">
-        <v>620.907837242328</v>
+        <v>620.9078372423282</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>469.821524546946</v>
+        <v>373.8270975072483</v>
       </c>
       <c r="C7" t="n">
-        <v>469.821524546946</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="D7" t="n">
-        <v>469.821524546946</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="E7" t="n">
-        <v>321.9084309645528</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="F7" t="n">
-        <v>175.0184834666425</v>
+        <v>204.8909145793414</v>
       </c>
       <c r="G7" t="n">
-        <v>175.0184834666425</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4758,19 +4758,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="V7" t="n">
-        <v>800.1710318001377</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="W7" t="n">
-        <v>651.4699893771857</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="X7" t="n">
-        <v>651.4699893771857</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="Y7" t="n">
-        <v>651.4699893771857</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>954.5621981175507</v>
+        <v>1957.384050629951</v>
       </c>
       <c r="C8" t="n">
-        <v>954.5621981175507</v>
+        <v>1588.421533689539</v>
       </c>
       <c r="D8" t="n">
-        <v>954.5621981175507</v>
+        <v>1230.155835082789</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3337701408066</v>
+        <v>844.3675824845445</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3478653511989</v>
+        <v>433.3816776949369</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6416433428661</v>
+        <v>421.7158597270081</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428661</v>
+        <v>117.6416433428662</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685564</v>
+        <v>51.21125520685554</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467169</v>
+        <v>187.3702251467165</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607419</v>
+        <v>442.1757437607409</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045917</v>
+        <v>795.1862829045908</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995225</v>
+        <v>1219.647962995224</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209583</v>
+        <v>1655.591685209581</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940594</v>
+        <v>2053.905718940591</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550197</v>
+        <v>2359.356530550192</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661163</v>
+        <v>2540.564622661158</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342782</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="S8" t="n">
-        <v>2435.830015762135</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="T8" t="n">
-        <v>2435.830015762135</v>
+        <v>2542.028116447952</v>
       </c>
       <c r="U8" t="n">
-        <v>2435.830015762135</v>
+        <v>2288.446937973521</v>
       </c>
       <c r="V8" t="n">
-        <v>2104.767128418564</v>
+        <v>1957.384050629951</v>
       </c>
       <c r="W8" t="n">
-        <v>2104.767128418564</v>
+        <v>1957.384050629951</v>
       </c>
       <c r="X8" t="n">
-        <v>1731.301370157484</v>
+        <v>1957.384050629951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1341.162038181672</v>
+        <v>1957.384050629951</v>
       </c>
     </row>
     <row r="9">
@@ -4877,43 +4877,43 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993886</v>
+        <v>71.66559839993883</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685564</v>
+        <v>51.21125520685554</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507235</v>
+        <v>113.4887579637184</v>
       </c>
       <c r="K9" t="n">
-        <v>589.4696922330237</v>
+        <v>559.90633895727</v>
       </c>
       <c r="L9" t="n">
-        <v>884.0056756665049</v>
+        <v>854.4423223907509</v>
       </c>
       <c r="M9" t="n">
-        <v>1247.072144140806</v>
+        <v>1217.508790865052</v>
       </c>
       <c r="N9" t="n">
-        <v>1634.156546613375</v>
+        <v>1604.59319333762</v>
       </c>
       <c r="O9" t="n">
-        <v>1966.043356600764</v>
+        <v>1936.480003325009</v>
       </c>
       <c r="P9" t="n">
-        <v>2213.078715030389</v>
+        <v>2421.055229888875</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442624</v>
+        <v>2536.27262844262</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342782</v>
+        <v>2560.562760342777</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251697</v>
+        <v>2424.826280251692</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2230.816477685341</v>
       </c>
       <c r="U9" t="n">
         <v>2004.520714847062</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>868.9849822405228</v>
+        <v>662.7461887828619</v>
       </c>
       <c r="C10" t="n">
-        <v>868.9849822405228</v>
+        <v>662.7461887828619</v>
       </c>
       <c r="D10" t="n">
-        <v>718.868342828187</v>
+        <v>662.7461887828619</v>
       </c>
       <c r="E10" t="n">
-        <v>570.9552492457939</v>
+        <v>514.8330952004687</v>
       </c>
       <c r="F10" t="n">
-        <v>424.0653017478835</v>
+        <v>367.9431477025583</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8310225827537</v>
+        <v>199.9560228422491</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473602</v>
+        <v>51.21125520685554</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685564</v>
+        <v>51.21125520685554</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380143</v>
+        <v>76.63468308380122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676567</v>
+        <v>248.2500215676563</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368918</v>
+        <v>523.3850043368911</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904033</v>
+        <v>823.8653899904023</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101612</v>
+        <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931091</v>
+        <v>1382.582027931089</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616499</v>
+        <v>1581.490387616498</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477362</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477362</v>
+        <v>1533.156055412618</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477362</v>
+        <v>1434.837397923727</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.787843951768</v>
+        <v>1434.837397923727</v>
       </c>
       <c r="U10" t="n">
-        <v>1123.66947044641</v>
+        <v>1434.837397923727</v>
       </c>
       <c r="V10" t="n">
-        <v>868.9849822405228</v>
+        <v>1180.15290971784</v>
       </c>
       <c r="W10" t="n">
-        <v>868.9849822405228</v>
+        <v>890.7357396808792</v>
       </c>
       <c r="X10" t="n">
-        <v>868.9849822405228</v>
+        <v>662.7461887828619</v>
       </c>
       <c r="Y10" t="n">
-        <v>868.9849822405228</v>
+        <v>662.7461887828619</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5229,19 +5229,19 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U13" t="n">
-        <v>2160.315914855604</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1905.631426649717</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1616.214256612757</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1388.224705714739</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
         <v>1280.315625093766</v>
@@ -5263,40 +5263,40 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5305,10 +5305,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466572</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.043492616109</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782951</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038337</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
@@ -5454,13 +5454,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5515,13 +5515,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5530,37 +5530,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.043492616109</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>835.5837926935558</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232836</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797186</v>
@@ -5676,10 +5676,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5709,16 +5709,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1755.431557602304</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1466.014387565343</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1238.024836667326</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1017.232257523796</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="20">
@@ -5743,25 +5743,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5773,16 +5773,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5794,7 +5794,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.043492616109</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>365.9405071576781</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>219.0505596597677</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5946,16 +5946,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5983,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6016,10 +6016,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6244,34 +6244,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1970.320130882545</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1715.635642676658</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,31 +6454,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6551,16 +6551,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>727.9786782557277</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C31" t="n">
-        <v>559.0424953278208</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>408.925855915485</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
         <v>261.0127623330919</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X31" t="n">
-        <v>1130.419722229497</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y31" t="n">
-        <v>909.6271430859674</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,19 +6712,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,25 +6952,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622266</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343197</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2570777219839</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>597.2570777219839</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>450.3671302240735</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,25 +7186,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,28 +7423,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7505,10 +7505,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>701.4712640439268</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>532.5350811160199</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2165.078743814364</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1876.003517158562</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1621.319028952675</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1331.901858915714</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1103.912308017697</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>883.1197288741665</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7742,10 +7742,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418294</v>
+        <v>99.37288961069042</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.05878169167812</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.262887399594746</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8306,10 +8306,10 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>51.53815565544048</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>45.78351343583194</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.2361746779808</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>239.9392607416589</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>111.7546635373313</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>111.7546635373314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194277</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>111.8370608760584</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>41.54258064659093</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>62.35543909864955</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>212.7396875474381</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>30.95754073885482</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>79.42624789262584</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>34.09972495271759</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>119.3662399606949</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10.85445046951727</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>835254.5362274165</v>
+        <v>835254.5362274167</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>835254.5362274167</v>
+        <v>835254.5362274166</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>835254.5362274166</v>
+        <v>835254.5362274165</v>
       </c>
     </row>
     <row r="16">
@@ -26319,43 +26319,43 @@
         <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="H2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="J2" t="n">
         <v>585181.2847752547</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="L2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="H2" t="n">
+      <c r="M2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="I2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752541</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911928</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580788</v>
+        <v>390680.0076580775</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606935</v>
+        <v>507909.2320606943</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101764</v>
+        <v>95270.23779101724</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954691</v>
+        <v>132717.9756954693</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>247648.5670423891</v>
       </c>
       <c r="D4" t="n">
-        <v>135650.8557716746</v>
+        <v>135650.8557716749</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744335</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8727.256391744335</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8727.256391744335</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8727.256391744309</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8727.256391744317</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="L4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8727.256391744246</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8727.256391744246</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744242</v>
       </c>
       <c r="M4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744242</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567895</v>
+        <v>92902.86757567886</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-395529.067686243</v>
+        <v>-395529.0676862433</v>
       </c>
       <c r="C6" t="n">
         <v>284558.9129049496</v>
       </c>
       <c r="D6" t="n">
-        <v>-23978.44785382718</v>
+        <v>-23978.44785382622</v>
       </c>
       <c r="E6" t="n">
-        <v>-32925.1127554475</v>
+        <v>-32612.47142652681</v>
       </c>
       <c r="F6" t="n">
-        <v>474984.1193052463</v>
+        <v>475296.7606341673</v>
       </c>
       <c r="G6" t="n">
-        <v>474984.1193052462</v>
+        <v>475296.7606341674</v>
       </c>
       <c r="H6" t="n">
-        <v>474984.1193052461</v>
+        <v>475296.7606341672</v>
       </c>
       <c r="I6" t="n">
-        <v>474984.1193052461</v>
+        <v>475296.7606341671</v>
       </c>
       <c r="J6" t="n">
-        <v>405984.9648861318</v>
+        <v>406297.6062150535</v>
       </c>
       <c r="K6" t="n">
-        <v>474984.1193052458</v>
+        <v>475296.7606341671</v>
       </c>
       <c r="L6" t="n">
-        <v>379713.8815142284</v>
+        <v>380026.5228431501</v>
       </c>
       <c r="M6" t="n">
-        <v>342266.1436097768</v>
+        <v>342578.784938698</v>
       </c>
       <c r="N6" t="n">
-        <v>474984.1193052461</v>
+        <v>475296.7606341672</v>
       </c>
       <c r="O6" t="n">
-        <v>474984.119305246</v>
+        <v>475296.7606341672</v>
       </c>
       <c r="P6" t="n">
-        <v>474984.1193052459</v>
+        <v>475296.7606341674</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627827</v>
+        <v>933.7024595627818</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856955</v>
+        <v>640.1406900856942</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26819,19 +26819,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933044</v>
+        <v>319.6474457933034</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788911</v>
+        <v>434.2730407788918</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841894</v>
+        <v>376.426810084188</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139529</v>
+        <v>532.5675980139537</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841896</v>
+        <v>376.426810084188</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139529</v>
+        <v>532.5675980139537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841894</v>
+        <v>376.426810084188</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139529</v>
+        <v>532.5675980139537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>272.6373214467626</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>366.3013329147718</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
         <v>149.1202946442039</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27460,25 +27460,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>28.8968482154599</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,10 +27508,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>159.0978602831036</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888211</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>63.06484333156844</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>283.9451561859196</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>347.5277463642896</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
+        <v>143.1621657402052</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>391.5154711067077</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27697,25 +27697,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>50.51920908443716</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>13.83342968254507</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>33.04160191116111</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.5447505011713</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>139.3089663378685</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>371.8042263752851</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>188.3152656088127</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27985,10 +27985,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.776449164531471</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.776449164536331</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>49.25531723822769</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>97.33837933638227</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.133261760295336e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28508,7 +28508,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-5.77553963785772e-13</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.133261760295336e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28866,7 +28866,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>5.785973998768142e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>7.394985773160066e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30708,7 +30708,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350879</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,22 +31199,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582787</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885556</v>
+        <v>3.753577726885552</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546671</v>
+        <v>38.44132789546667</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157555</v>
+        <v>144.7098053157554</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972532</v>
+        <v>318.5802175972529</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763189</v>
+        <v>477.4691627763184</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354929</v>
+        <v>592.3427171354923</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359938</v>
+        <v>659.0954050359932</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525074</v>
+        <v>669.7602577525068</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307891</v>
+        <v>632.4356192307886</v>
       </c>
       <c r="P8" t="n">
-        <v>539.769169098302</v>
+        <v>539.7691690983014</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542128</v>
+        <v>405.3441667542124</v>
       </c>
       <c r="R8" t="n">
-        <v>235.785676886475</v>
+        <v>235.7856768864748</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140468</v>
+        <v>85.5346524514046</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944153</v>
+        <v>16.43128649944151</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508444</v>
+        <v>0.3002862181508441</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436929</v>
+        <v>2.008341139436927</v>
       </c>
       <c r="H9" t="n">
-        <v>19.3963473203514</v>
+        <v>19.39634732035137</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026269</v>
+        <v>69.14683309026262</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079425</v>
+        <v>189.7441951079423</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502167</v>
+        <v>324.3030514502164</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571279</v>
+        <v>436.0654741571275</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617165</v>
+        <v>508.867840461716</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152213</v>
+        <v>522.3360580152207</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519082</v>
+        <v>477.8354464519078</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947588</v>
+        <v>383.5050724947585</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463701</v>
+        <v>256.3629847463699</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204788</v>
+        <v>124.6933209204787</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366398</v>
+        <v>37.30405581366394</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133935</v>
+        <v>8.095024154133926</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419033</v>
+        <v>0.1321277065419031</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752559</v>
+        <v>1.683725746752557</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840003</v>
+        <v>14.96985254840002</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415878</v>
+        <v>50.63422518415873</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.0394102954058</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772518</v>
+        <v>195.6183185772516</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490123</v>
+        <v>250.324098749012</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023124</v>
+        <v>263.9316641023121</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462349</v>
+        <v>257.6559590462347</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046254</v>
+        <v>237.9869810046252</v>
       </c>
       <c r="P10" t="n">
-        <v>203.638975770873</v>
+        <v>203.6389757708728</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939802</v>
+        <v>140.9890713939801</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307412</v>
+        <v>75.70643221307405</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658776</v>
+        <v>29.34274778658774</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942749</v>
+        <v>7.194100917942742</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650331</v>
+        <v>0.09183958618650322</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,7 +31840,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
@@ -31849,28 +31849,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647499</v>
+        <v>583.1096135868581</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,37 +32077,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>164.9290651940687</v>
+        <v>551.7051287319857</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,37 +32314,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>164.9290651940687</v>
+        <v>551.7051287319857</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,37 +32551,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>164.9290651940687</v>
+        <v>551.7051287319857</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>400.5469039565762</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>400.5469039565762</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>550.5977692975237</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>164.9290651940687</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763041</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>263.7138800015061</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.8797653960911</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34874,10 +34874,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496811</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>217.4386117456601</v>
       </c>
       <c r="P6" t="n">
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.534313070567</v>
+        <v>137.5343130705666</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313384</v>
+        <v>257.3793117313379</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655056</v>
+        <v>356.5763021655051</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087211</v>
+        <v>428.7491718087205</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559165</v>
+        <v>440.3471941559159</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091024</v>
+        <v>402.3374078091018</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430324</v>
+        <v>308.5361733430319</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797634</v>
+        <v>183.038476879763</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234286</v>
+        <v>20.20013907234264</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816847</v>
+        <v>62.90656844127562</v>
       </c>
       <c r="K9" t="n">
-        <v>354.6977871538386</v>
+        <v>450.926849488436</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772538</v>
+        <v>297.5110943772534</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396982</v>
+        <v>366.7338065396977</v>
       </c>
       <c r="N9" t="n">
-        <v>390.994345931888</v>
+        <v>390.9943459318874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074638</v>
+        <v>335.2392020074633</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804286</v>
+        <v>489.4699258220871</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961977</v>
+        <v>116.3812106603484</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783571</v>
+        <v>24.53548676783558</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873313</v>
+        <v>25.68023017873301</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513689</v>
+        <v>173.3488267513687</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093284</v>
+        <v>277.9141240093281</v>
       </c>
       <c r="M10" t="n">
-        <v>303.515541064153</v>
+        <v>303.5155410641527</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254635</v>
+        <v>301.7881314254632</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186651</v>
+        <v>262.5721089186649</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357665</v>
+        <v>200.9175350357663</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228578</v>
+        <v>54.82702814228567</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427316</v>
+        <v>440.9755796648398</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>22.33282074962425</v>
+        <v>409.1088842875412</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295275</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>22.33282074962425</v>
+        <v>409.1088842875412</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>22.33282074962425</v>
+        <v>409.1088842875412</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>257.9506595121318</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193515</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>257.9506595121318</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>416.6233618831934</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>22.33282074962425</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
